--- a/Data/WASH-data-TN-VN-Industry.xlsx
+++ b/Data/WASH-data-TN-VN-Industry.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nam\2022-WASH-VN\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A87F051F-FBCB-4CDF-911A-5BCBC01B226B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB345225-569A-4CB8-B566-B81AA1094446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="foxz" sheetId="9" state="veryHidden" r:id=""/>
-    <sheet name="database" sheetId="1" r:id="rId1"/>
-    <sheet name="generic" sheetId="5" r:id="rId2"/>
-    <sheet name="Q1.1-Q1.2" sheetId="3" r:id="rId3"/>
-    <sheet name="Q1.14" sheetId="4" r:id="rId4"/>
-    <sheet name="Q9.2" sheetId="8" r:id="rId5"/>
+    <sheet name="foxz" sheetId="9" state="veryHidden" r:id="rId1"/>
+    <sheet name="database" sheetId="1" r:id="rId2"/>
+    <sheet name="generic" sheetId="5" r:id="rId3"/>
+    <sheet name="Q1.1-Q1.2" sheetId="3" r:id="rId4"/>
+    <sheet name="Q1.14" sheetId="4" r:id="rId5"/>
+    <sheet name="Q9.2" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="190">
   <si>
     <t>Ngày-Tháng-Năm</t>
   </si>
@@ -464,12 +464,6 @@
     <t>Huyền Trang</t>
   </si>
   <si>
-    <t>2.000.000</t>
-  </si>
-  <si>
-    <t>2.500.00</t>
-  </si>
-  <si>
     <t>TN-02</t>
   </si>
   <si>
@@ -527,27 +521,15 @@
     <t>TN-19</t>
   </si>
   <si>
-    <t>2.700.000</t>
-  </si>
-  <si>
-    <t>3.000.000</t>
-  </si>
-  <si>
     <t>Ngân Hàng nông nghiệp và phát triển nông thôn VN</t>
   </si>
   <si>
     <t>Kỳ Sơn</t>
   </si>
   <si>
-    <t>1.500.000</t>
-  </si>
-  <si>
     <t>Trun sở Xã Quảng Thanh</t>
   </si>
   <si>
-    <t>1.200.000</t>
-  </si>
-  <si>
     <t>Nhà máy đóng tàu Hằng Giang</t>
   </si>
   <si>
@@ -557,72 +539,30 @@
     <t>1,3</t>
   </si>
   <si>
-    <t>12.000.000</t>
-  </si>
-  <si>
-    <t>13.000.000</t>
-  </si>
-  <si>
-    <t>15.000.000</t>
-  </si>
-  <si>
     <t>Cty CP TM dịch vụ Tàu thủy Việt Hải</t>
   </si>
   <si>
-    <t>8.000.000</t>
-  </si>
-  <si>
-    <t>10.000.000</t>
-  </si>
-  <si>
     <t>Cty sản xuất bê tông Anh Vũ</t>
   </si>
   <si>
-    <t>17.000.000</t>
-  </si>
-  <si>
-    <t>19.000.000</t>
-  </si>
-  <si>
-    <t>22.000.000</t>
-  </si>
-  <si>
     <t>Cty CP sửa chữa Tàu biểnThanh Hưng</t>
   </si>
   <si>
-    <t>9.000.000</t>
-  </si>
-  <si>
-    <t>11.000.000</t>
-  </si>
-  <si>
     <t>Cty TNHH Thành Năm</t>
   </si>
   <si>
     <t>Nhà hàng NDN hai san so 1</t>
   </si>
   <si>
-    <t>4.000.000</t>
-  </si>
-  <si>
     <t>Cty CP cơ khí đúc Mỹ Đồng</t>
   </si>
   <si>
     <t>Mỹ Đồng</t>
   </si>
   <si>
-    <t>7.000.000</t>
-  </si>
-  <si>
     <t>Cty CP cơ khí - đúc hợp kim Phương Mỹ</t>
   </si>
   <si>
-    <t>5.000.000</t>
-  </si>
-  <si>
-    <t>7.000.00</t>
-  </si>
-  <si>
     <t>Xưởng đúc- cơ khí Tấn Đạt</t>
   </si>
   <si>
@@ -632,52 +572,28 @@
     <t>Chính Mỹ</t>
   </si>
   <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>20.000.000</t>
-  </si>
-  <si>
     <t>Cửa hàng điện máy Thiên long</t>
   </si>
   <si>
-    <t>2.500.000</t>
-  </si>
-  <si>
     <t>Đúc Thép Quảng Đại</t>
   </si>
   <si>
     <t>Cty TNHH cơ khí Trung Anh</t>
   </si>
   <si>
-    <t>5.500.000</t>
-  </si>
-  <si>
-    <t>7.500.000</t>
-  </si>
-  <si>
     <t>Cty TNHH SX TM Hưng Trường Phát</t>
   </si>
   <si>
     <t>Kiền Bái</t>
   </si>
   <si>
-    <t>6.600.000</t>
-  </si>
-  <si>
     <t>Tập Đoàn Suka Nhật Bản</t>
   </si>
   <si>
-    <t>12.500.000</t>
-  </si>
-  <si>
     <t>TN-20</t>
   </si>
   <si>
     <t>Cty TNHH cơ khí đúc Thành Phương</t>
-  </si>
-  <si>
-    <t>18.000.000</t>
   </si>
   <si>
     <r>
@@ -710,18 +626,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Ghi chú: </t>
-  </si>
-  <si>
-    <t>- Nguồn nước số 3 là nguồn nước  được cấp từ hộ kinh doanh cá thể.</t>
-  </si>
-  <si>
-    <t>- Chất lượng nước không đảm bảo tiêu chuẩn nước sạch sinh hoạt theo tiêu chuẩn của Bộ y tế</t>
-  </si>
-  <si>
-    <t>- Lưu lượng nước không ổn định, thường xuyên thiếu nước, thường xuyên mất nước khi mất điện.</t>
-  </si>
-  <si>
     <t>supply by household, often having bad smell, and mulky in the raining season</t>
   </si>
   <si>
@@ -738,18 +642,6 @@
   </si>
   <si>
     <t>bad smell and only used for gardening</t>
-  </si>
-  <si>
-    <t>Note</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Water source no. 3 is provided by households</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Quality of water doesn’t meet the required standard by MOH</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Volume of water is not reliable, often lack of water, particularly when there is a blackout, the water supply also stops</t>
   </si>
 </sst>
 </file>
@@ -760,7 +652,7 @@
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -790,12 +682,6 @@
     <font>
       <b/>
       <sz val="13"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -877,7 +763,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -941,12 +827,6 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -1262,12 +1142,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D7E73C-A13B-4B40-BAD5-5656557F100A}">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{649033C5-0692-4CC9-B3DD-A1DD5C608307}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AK37"/>
+  <dimension ref="A1:AJ27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView tabSelected="1" topLeftCell="L4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
@@ -1512,10 +1405,10 @@
         <v>133</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>210</v>
+        <v>182</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>211</v>
+        <v>183</v>
       </c>
       <c r="K4" s="18" t="s">
         <v>50</v>
@@ -1859,11 +1752,11 @@
       <c r="Q8" s="4">
         <v>3</v>
       </c>
-      <c r="R8" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="T8" s="4" t="s">
-        <v>138</v>
+      <c r="R8" s="4">
+        <v>2000000</v>
+      </c>
+      <c r="T8" s="4">
+        <v>2000000</v>
       </c>
       <c r="U8" s="4">
         <v>2</v>
@@ -1892,16 +1785,16 @@
       <c r="AI8" s="4">
         <v>200</v>
       </c>
-      <c r="AJ8" s="4" t="s">
-        <v>139</v>
+      <c r="AJ8" s="4">
+        <v>250000</v>
       </c>
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>32</v>
@@ -1933,11 +1826,11 @@
       <c r="Q9" s="4">
         <v>5</v>
       </c>
-      <c r="R9" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="T9" s="4" t="s">
-        <v>159</v>
+      <c r="R9" s="4">
+        <v>2000000</v>
+      </c>
+      <c r="T9" s="4">
+        <v>2700000</v>
       </c>
       <c r="U9" s="4">
         <v>1</v>
@@ -1966,22 +1859,22 @@
       <c r="AI9" s="4">
         <v>250</v>
       </c>
-      <c r="AJ9" s="4" t="s">
-        <v>160</v>
+      <c r="AJ9" s="4">
+        <v>3000000</v>
       </c>
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E10" s="3">
         <v>20.977864</v>
@@ -2007,11 +1900,11 @@
       <c r="Q10" s="4">
         <v>4</v>
       </c>
-      <c r="R10" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="T10" s="4" t="s">
-        <v>163</v>
+      <c r="R10" s="4">
+        <v>1500000</v>
+      </c>
+      <c r="T10" s="4">
+        <v>1500000</v>
       </c>
       <c r="U10" s="4">
         <v>1</v>
@@ -2040,16 +1933,16 @@
       <c r="AI10" s="4">
         <v>170</v>
       </c>
-      <c r="AJ10" s="4" t="s">
-        <v>138</v>
+      <c r="AJ10" s="4">
+        <v>2000000</v>
       </c>
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>32</v>
@@ -2081,11 +1974,11 @@
       <c r="Q11" s="4">
         <v>6</v>
       </c>
-      <c r="R11" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="T11" s="4" t="s">
-        <v>165</v>
+      <c r="R11" s="4">
+        <v>1200000</v>
+      </c>
+      <c r="T11" s="4">
+        <v>1200000</v>
       </c>
       <c r="U11" s="4">
         <v>1</v>
@@ -2114,22 +2007,22 @@
       <c r="AI11" s="4">
         <v>120</v>
       </c>
-      <c r="AJ11" s="4" t="s">
-        <v>163</v>
+      <c r="AJ11" s="4">
+        <v>1500000</v>
       </c>
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="E12" s="3">
         <v>20.944728999999999</v>
@@ -2144,10 +2037,10 @@
         <v>137</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="J12" s="22" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="K12" s="4">
         <v>1</v>
@@ -2156,7 +2049,7 @@
         <v>2</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>216</v>
+        <v>184</v>
       </c>
       <c r="P12" s="4">
         <v>1</v>
@@ -2164,11 +2057,11 @@
       <c r="Q12" s="4">
         <v>5</v>
       </c>
-      <c r="R12" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="T12" s="4" t="s">
-        <v>170</v>
+      <c r="R12" s="4">
+        <v>12000000</v>
+      </c>
+      <c r="T12" s="4">
+        <v>13000000</v>
       </c>
       <c r="U12" s="4">
         <v>2</v>
@@ -2197,22 +2090,22 @@
       <c r="AI12" s="4">
         <v>1300</v>
       </c>
-      <c r="AJ12" s="4" t="s">
-        <v>171</v>
+      <c r="AJ12" s="4">
+        <v>15000000</v>
       </c>
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="E13" s="3">
         <v>20.954180000000001</v>
@@ -2227,10 +2120,10 @@
         <v>137</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="J13" s="22" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="K13" s="4">
         <v>1</v>
@@ -2239,7 +2132,7 @@
         <v>2</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>219</v>
+        <v>187</v>
       </c>
       <c r="P13" s="4">
         <v>1</v>
@@ -2247,11 +2140,11 @@
       <c r="Q13" s="4">
         <v>2</v>
       </c>
-      <c r="R13" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="T13" s="4" t="s">
-        <v>174</v>
+      <c r="R13" s="4">
+        <v>8000000</v>
+      </c>
+      <c r="T13" s="4">
+        <v>10000000</v>
       </c>
       <c r="U13" s="4">
         <v>2</v>
@@ -2280,22 +2173,22 @@
       <c r="AI13" s="4">
         <v>850</v>
       </c>
-      <c r="AJ13" s="4" t="s">
-        <v>174</v>
+      <c r="AJ13" s="4">
+        <v>10000000</v>
       </c>
     </row>
     <row r="14" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="E14" s="3">
         <v>20.944828000000001</v>
@@ -2310,10 +2203,10 @@
         <v>137</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="J14" s="22" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="K14" s="4">
         <v>1</v>
@@ -2322,7 +2215,7 @@
         <v>2</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>217</v>
+        <v>185</v>
       </c>
       <c r="P14" s="4">
         <v>1</v>
@@ -2330,11 +2223,11 @@
       <c r="Q14" s="4">
         <v>3</v>
       </c>
-      <c r="R14" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="T14" s="4" t="s">
-        <v>177</v>
+      <c r="R14" s="4">
+        <v>17000000</v>
+      </c>
+      <c r="T14" s="4">
+        <v>19000000</v>
       </c>
       <c r="U14" s="4">
         <v>2</v>
@@ -2363,22 +2256,22 @@
       <c r="AI14" s="4">
         <v>1900</v>
       </c>
-      <c r="AJ14" s="4" t="s">
-        <v>178</v>
+      <c r="AJ14" s="4">
+        <v>22000000</v>
       </c>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="E15" s="3">
         <v>20.945573</v>
@@ -2393,10 +2286,10 @@
         <v>137</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="J15" s="22" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="K15" s="4">
         <v>1</v>
@@ -2405,7 +2298,7 @@
         <v>2</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>218</v>
+        <v>186</v>
       </c>
       <c r="P15" s="4">
         <v>1</v>
@@ -2413,11 +2306,11 @@
       <c r="Q15" s="4">
         <v>3</v>
       </c>
-      <c r="R15" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="T15" s="4" t="s">
-        <v>174</v>
+      <c r="R15" s="4">
+        <v>9000000</v>
+      </c>
+      <c r="T15" s="4">
+        <v>10000000</v>
       </c>
       <c r="U15" s="4">
         <v>2</v>
@@ -2446,22 +2339,22 @@
       <c r="AI15" s="4">
         <v>900</v>
       </c>
-      <c r="AJ15" s="4" t="s">
-        <v>181</v>
+      <c r="AJ15" s="4">
+        <v>11000000</v>
       </c>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="E16" s="3">
         <v>20.958874000000002</v>
@@ -2476,10 +2369,10 @@
         <v>137</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="J16" s="22" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="K16" s="4">
         <v>1</v>
@@ -2488,7 +2381,7 @@
         <v>2</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>219</v>
+        <v>187</v>
       </c>
       <c r="P16" s="4">
         <v>1</v>
@@ -2496,11 +2389,11 @@
       <c r="Q16" s="4">
         <v>6</v>
       </c>
-      <c r="R16" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="T16" s="4" t="s">
-        <v>169</v>
+      <c r="R16" s="4">
+        <v>10000000</v>
+      </c>
+      <c r="T16" s="4">
+        <v>12000000</v>
       </c>
       <c r="U16" s="4">
         <v>2</v>
@@ -2529,16 +2422,16 @@
       <c r="AI16" s="4">
         <v>950</v>
       </c>
-      <c r="AJ16" s="4" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AJ16" s="4">
+        <v>12000000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>32</v>
@@ -2570,11 +2463,11 @@
       <c r="Q17" s="4">
         <v>1</v>
       </c>
-      <c r="R17" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="T17" s="4" t="s">
-        <v>160</v>
+      <c r="R17" s="4">
+        <v>3000000</v>
+      </c>
+      <c r="T17" s="4">
+        <v>3000000</v>
       </c>
       <c r="U17" s="4">
         <v>1</v>
@@ -2603,22 +2496,22 @@
       <c r="AI17" s="4">
         <v>300</v>
       </c>
-      <c r="AJ17" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AJ17" s="4">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="E18" s="3">
         <v>20.936896000000001</v>
@@ -2644,11 +2537,11 @@
       <c r="Q18" s="4">
         <v>3</v>
       </c>
-      <c r="R18" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="T18" s="4" t="s">
-        <v>187</v>
+      <c r="R18" s="4">
+        <v>7000000</v>
+      </c>
+      <c r="T18" s="4">
+        <v>7000000</v>
       </c>
       <c r="U18" s="4">
         <v>1</v>
@@ -2677,22 +2570,22 @@
       <c r="AI18" s="4">
         <v>600</v>
       </c>
-      <c r="AJ18" s="4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AJ18" s="4">
+        <v>8000000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="E19" s="3">
         <v>20.933865000000001</v>
@@ -2718,11 +2611,11 @@
       <c r="Q19" s="4">
         <v>4</v>
       </c>
-      <c r="R19" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="T19" s="4" t="s">
-        <v>189</v>
+      <c r="R19" s="4">
+        <v>5000000</v>
+      </c>
+      <c r="T19" s="4">
+        <v>5000000</v>
       </c>
       <c r="U19" s="4">
         <v>2</v>
@@ -2751,22 +2644,22 @@
       <c r="AI19" s="4">
         <v>550</v>
       </c>
-      <c r="AJ19" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AJ19" s="4">
+        <v>700000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="E20" s="3">
         <v>20.932839999999999</v>
@@ -2781,10 +2674,10 @@
         <v>137</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="K20" s="4">
         <v>1</v>
@@ -2793,7 +2686,7 @@
         <v>2</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>220</v>
+        <v>188</v>
       </c>
       <c r="P20" s="4">
         <v>1</v>
@@ -2801,11 +2694,11 @@
       <c r="Q20" s="4">
         <v>4</v>
       </c>
-      <c r="R20" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="T20" s="4" t="s">
-        <v>180</v>
+      <c r="R20" s="4">
+        <v>9000000</v>
+      </c>
+      <c r="T20" s="4">
+        <v>9000000</v>
       </c>
       <c r="U20" s="4">
         <v>2</v>
@@ -2834,22 +2727,22 @@
       <c r="AI20" s="4">
         <v>900</v>
       </c>
-      <c r="AJ20" s="4" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AJ20" s="4">
+        <v>11000000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="E21" s="3">
         <v>20.932579</v>
@@ -2875,11 +2768,11 @@
       <c r="Q21" s="4">
         <v>6</v>
       </c>
-      <c r="R21" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="T21" s="4" t="s">
-        <v>176</v>
+      <c r="R21" s="4">
+        <v>17000000</v>
+      </c>
+      <c r="T21" s="4">
+        <v>17000000</v>
       </c>
       <c r="U21" s="4">
         <v>2</v>
@@ -2908,25 +2801,22 @@
       <c r="AI21" s="4">
         <v>1700</v>
       </c>
-      <c r="AJ21" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="AK21" s="4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AJ21" s="4">
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="E22" s="2">
         <v>20.932499</v>
@@ -2952,11 +2842,11 @@
       <c r="Q22" s="4">
         <v>3</v>
       </c>
-      <c r="R22" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="T22" s="4" t="s">
-        <v>138</v>
+      <c r="R22" s="4">
+        <v>2000000</v>
+      </c>
+      <c r="T22" s="4">
+        <v>2000000</v>
       </c>
       <c r="U22" s="4">
         <v>1</v>
@@ -2985,22 +2875,22 @@
       <c r="AI22" s="4">
         <v>200</v>
       </c>
-      <c r="AJ22" s="4" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AJ22" s="4">
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="E23" s="3">
         <v>20.932366999999999</v>
@@ -3026,11 +2916,11 @@
       <c r="Q23" s="4">
         <v>4</v>
       </c>
-      <c r="R23" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="T23" s="4" t="s">
-        <v>184</v>
+      <c r="R23" s="4">
+        <v>4000000</v>
+      </c>
+      <c r="T23" s="4">
+        <v>4000000</v>
       </c>
       <c r="U23" s="4">
         <v>1</v>
@@ -3059,22 +2949,22 @@
       <c r="AI23" s="4">
         <v>420</v>
       </c>
-      <c r="AJ23" s="4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AJ23" s="4">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="E24" s="3">
         <v>20.932334000000001</v>
@@ -3089,10 +2979,10 @@
         <v>137</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="J24" s="22" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="K24" s="4">
         <v>1</v>
@@ -3101,7 +2991,7 @@
         <v>2</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>221</v>
+        <v>189</v>
       </c>
       <c r="P24" s="4">
         <v>1</v>
@@ -3109,11 +2999,11 @@
       <c r="Q24" s="4">
         <v>8</v>
       </c>
-      <c r="R24" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="T24" s="4" t="s">
-        <v>200</v>
+      <c r="R24" s="4">
+        <v>5000000</v>
+      </c>
+      <c r="T24" s="4">
+        <v>5500000</v>
       </c>
       <c r="U24" s="4">
         <v>2</v>
@@ -3142,22 +3032,22 @@
       <c r="AI24" s="4">
         <v>600</v>
       </c>
-      <c r="AJ24" s="4" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AJ24" s="4">
+        <v>7500000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="E25" s="3">
         <v>20.928529999999999</v>
@@ -3183,11 +3073,11 @@
       <c r="Q25" s="4">
         <v>7</v>
       </c>
-      <c r="R25" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="T25" s="4" t="s">
-        <v>200</v>
+      <c r="R25" s="4">
+        <v>5500000</v>
+      </c>
+      <c r="T25" s="4">
+        <v>5500000</v>
       </c>
       <c r="U25" s="4">
         <v>2</v>
@@ -3216,22 +3106,22 @@
       <c r="AI25" s="4">
         <v>550</v>
       </c>
-      <c r="AJ25" s="4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AJ25" s="4">
+        <v>6600000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>205</v>
+        <v>179</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="E26" s="3">
         <v>20.928297000000001</v>
@@ -3257,11 +3147,11 @@
       <c r="Q26" s="4">
         <v>2</v>
       </c>
-      <c r="R26" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="T26" s="4" t="s">
-        <v>174</v>
+      <c r="R26" s="4">
+        <v>10000000</v>
+      </c>
+      <c r="T26" s="4">
+        <v>10000000</v>
       </c>
       <c r="U26" s="4">
         <v>2</v>
@@ -3290,22 +3180,22 @@
       <c r="AI26" s="4">
         <v>1000</v>
       </c>
-      <c r="AJ26" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="AJ26" s="4">
+        <v>12500000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>207</v>
+        <v>180</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="E27" s="3">
         <v>20.931170999999999</v>
@@ -3331,11 +3221,11 @@
       <c r="Q27" s="4">
         <v>8</v>
       </c>
-      <c r="R27" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="T27" s="4" t="s">
-        <v>171</v>
+      <c r="R27" s="4">
+        <v>15000000</v>
+      </c>
+      <c r="T27" s="4">
+        <v>15000000</v>
       </c>
       <c r="U27" s="4">
         <v>2</v>
@@ -3364,51 +3254,8 @@
       <c r="AI27" s="4">
         <v>1500</v>
       </c>
-      <c r="AJ27" s="4" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="I28" s="23"/>
-    </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="I29" s="23" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="I30" s="24" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="I31" s="24" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="I32" s="24" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="34" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I34" s="4" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="35" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I35" s="4" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="36" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I36" s="4" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="37" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I37" s="4" t="s">
-        <v>225</v>
+      <c r="AJ27" s="4">
+        <v>18000000</v>
       </c>
     </row>
   </sheetData>
@@ -3426,7 +3273,7 @@
           <x14:formula1>
             <xm:f>generic!$A$2:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>P8:P1048576 U8:U1048576 AE8:AE1048576 AH8:AH1048576 K8:L1048576</xm:sqref>
+          <xm:sqref>K8:L1048576 AH8:AH1048576 AE8:AE1048576 U8:U1048576 P8:P1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
@@ -3440,8 +3287,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EF8DE08-4FF3-4EF2-AC4A-C4510691EB94}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -3526,13 +3373,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{253D5B5D-0FBA-4B52-B747-7F11FDBC36D4}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3585,8 +3432,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07E3A51D-C94A-4E32-A37E-C2C6CF7ED417}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -3645,8 +3492,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA71AC0B-7D1C-4BB1-A876-D60834D25719}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -3738,26 +3585,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7efcc08b-4483-4ccf-a8e8-ab2c4b526a2f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="b006265b-fab6-480b-bdca-c9801be0c43d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001A2C29D39D8DAC4D9FC0B028C55E8BBE" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5850da55fa3ce5da3a412accbc52ee87">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7efcc08b-4483-4ccf-a8e8-ab2c4b526a2f" xmlns:ns3="b006265b-fab6-480b-bdca-c9801be0c43d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0148c81b6aab65ba8660cd93f71aa15c" ns2:_="" ns3:_="">
     <xsd:import namespace="7efcc08b-4483-4ccf-a8e8-ab2c4b526a2f"/>
@@ -3932,10 +3759,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7efcc08b-4483-4ccf-a8e8-ab2c4b526a2f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="b006265b-fab6-480b-bdca-c9801be0c43d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{119FAF29-A520-4B1C-8029-730A23048622}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0E51F00-1119-4D77-8FF1-1F018C7D7435}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="7efcc08b-4483-4ccf-a8e8-ab2c4b526a2f"/>
+    <ds:schemaRef ds:uri="b006265b-fab6-480b-bdca-c9801be0c43d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3958,20 +3816,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0E51F00-1119-4D77-8FF1-1F018C7D7435}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{119FAF29-A520-4B1C-8029-730A23048622}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="7efcc08b-4483-4ccf-a8e8-ab2c4b526a2f"/>
-    <ds:schemaRef ds:uri="b006265b-fab6-480b-bdca-c9801be0c43d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>